--- a/biology/Zoologie/Amazone_à_sourcils_rouges/Amazone_à_sourcils_rouges.xlsx
+++ b/biology/Zoologie/Amazone_à_sourcils_rouges/Amazone_à_sourcils_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_sourcils_rouges</t>
+          <t>Amazone_à_sourcils_rouges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona rhodocorytha
 L'Amazone à sourcils rouges ou Amazone à couronne rouge (Amazona rhodocorytha (Salvadori, 1890)) a longtemps été considérée comme une sous-espèce de l'Amazone de Dufresne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_sourcils_rouges</t>
+          <t>Amazone_à_sourcils_rouges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 34 cm.
 Les plumes du front et de la calotte sont jaune orangé bordées de vert. Les lores sont jaunes et les joues présentent une teinte azur.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_sourcils_rouges</t>
+          <t>Amazone_à_sourcils_rouges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau assez rare se rencontre dans le centre-est du Brésil (États de l'Alagoas, de Bahia, du Minas Gerais, de l'Espirito Santo et de Rio de Janeiro).
 </t>
